--- a/clcore_ig/output/StructureDefinition-CoreOrganizacionCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CoreOrganizacionCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
